--- a/medicine/Enfance/Machinations_infernales/Machinations_infernales.xlsx
+++ b/medicine/Enfance/Machinations_infernales/Machinations_infernales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Machinations infernales (titre original : Infernal Devices) est un roman de science-fiction écrit par Philip Reeve, publié en 2005[1] puis traduit en français et publié en 2009[2]. Il est le troisième volume de la série de livres Tom et Hester (Mortal Engines Quartet).
+Machinations infernales (titre original : Infernal Devices) est un roman de science-fiction écrit par Philip Reeve, publié en 2005 puis traduit en français et publié en 2009. Il est le troisième volume de la série de livres Tom et Hester (Mortal Engines Quartet).
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
